--- a/Code/Results/Cases/Case_2_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.136944176906582</v>
+        <v>0.6896187935121247</v>
       </c>
       <c r="C2">
-        <v>0.5377923273284466</v>
+        <v>0.181058051359372</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9673005730158479</v>
+        <v>0.824681771033525</v>
       </c>
       <c r="F2">
-        <v>1.890865408946695</v>
+        <v>1.961027168877578</v>
       </c>
       <c r="G2">
-        <v>0.1971616590790717</v>
+        <v>0.2102521736780076</v>
       </c>
       <c r="H2">
-        <v>0.1607547231389148</v>
+        <v>0.3798410003148334</v>
       </c>
       <c r="I2">
-        <v>0.08477385739543308</v>
+        <v>0.2459880266992993</v>
       </c>
       <c r="J2">
-        <v>0.01350461993225949</v>
+        <v>0.02121218483690512</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8382281995646537</v>
+        <v>0.8454711975907543</v>
       </c>
       <c r="O2">
-        <v>0.7061030532742762</v>
+        <v>1.090506345116282</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.865250825982514</v>
+        <v>0.6031622436052828</v>
       </c>
       <c r="C3">
-        <v>0.4743654188283983</v>
+        <v>0.1605233397285133</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8537819919521894</v>
+        <v>0.7995253972065228</v>
       </c>
       <c r="F3">
-        <v>1.690768466684162</v>
+        <v>1.925158862440043</v>
       </c>
       <c r="G3">
-        <v>0.1787066063765366</v>
+        <v>0.2086048924463739</v>
       </c>
       <c r="H3">
-        <v>0.1575253563446992</v>
+        <v>0.3825718963416307</v>
       </c>
       <c r="I3">
-        <v>0.08923384436111093</v>
+        <v>0.2505515470071007</v>
       </c>
       <c r="J3">
-        <v>0.01262812812640846</v>
+        <v>0.02126447437241907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8081683046284098</v>
+        <v>0.8373625661899098</v>
       </c>
       <c r="O3">
-        <v>0.6598822584323045</v>
+        <v>1.092489104206493</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.698216501737903</v>
+        <v>0.549900385240818</v>
       </c>
       <c r="C4">
-        <v>0.4353534973014348</v>
+        <v>0.147846999175556</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.785187236930696</v>
+        <v>0.7844856960294919</v>
       </c>
       <c r="F4">
-        <v>1.570985642083215</v>
+        <v>1.904360927396965</v>
       </c>
       <c r="G4">
-        <v>0.1680059084404277</v>
+        <v>0.2078194443181971</v>
       </c>
       <c r="H4">
-        <v>0.1559502274312834</v>
+        <v>0.3844689260907117</v>
       </c>
       <c r="I4">
-        <v>0.09241903826856479</v>
+        <v>0.2535616713022346</v>
       </c>
       <c r="J4">
-        <v>0.01213443682260262</v>
+        <v>0.02131490927722268</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7904046053614451</v>
+        <v>0.8326978890959253</v>
       </c>
       <c r="O4">
-        <v>0.6336850415610229</v>
+        <v>1.094638321525338</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.630082274299809</v>
+        <v>0.5281528175523817</v>
       </c>
       <c r="C5">
-        <v>0.419435695934169</v>
+        <v>0.1426645650038267</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7574837469529001</v>
+        <v>0.7784590137853229</v>
       </c>
       <c r="F5">
-        <v>1.522880223179541</v>
+        <v>1.896193213151548</v>
       </c>
       <c r="G5">
-        <v>0.1637922110129821</v>
+        <v>0.2075559685719455</v>
       </c>
       <c r="H5">
-        <v>0.1554057165816971</v>
+        <v>0.3852973329026312</v>
       </c>
       <c r="I5">
-        <v>0.09382380873915608</v>
+        <v>0.2548405271956327</v>
       </c>
       <c r="J5">
-        <v>0.01194367846510147</v>
+        <v>0.02134005753286949</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.783333563493656</v>
+        <v>0.8308763912083492</v>
       </c>
       <c r="O5">
-        <v>0.6235226828785443</v>
+        <v>1.095747901541657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.618764276032778</v>
+        <v>0.5245391057170252</v>
       </c>
       <c r="C6">
-        <v>0.4167912547754042</v>
+        <v>0.1418030264514698</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7528978649376796</v>
+        <v>0.7774644532850346</v>
       </c>
       <c r="F6">
-        <v>1.514933182491262</v>
+        <v>1.894855534682762</v>
       </c>
       <c r="G6">
-        <v>0.1631010727708571</v>
+        <v>0.2075156305410104</v>
       </c>
       <c r="H6">
-        <v>0.1553210357798918</v>
+        <v>0.3854382314176519</v>
       </c>
       <c r="I6">
-        <v>0.09406336112694902</v>
+        <v>0.2550560297153677</v>
       </c>
       <c r="J6">
-        <v>0.01191261136951205</v>
+        <v>0.02134451055539621</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7821693747854681</v>
+        <v>0.8305787407633574</v>
       </c>
       <c r="O6">
-        <v>0.621865220825697</v>
+        <v>1.095946248634419</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.697297904584161</v>
+        <v>0.5496072615924277</v>
       </c>
       <c r="C7">
-        <v>0.4351389097207061</v>
+        <v>0.1477771742834477</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7848126446191657</v>
+        <v>0.784404004715995</v>
       </c>
       <c r="F7">
-        <v>1.570334098112298</v>
+        <v>1.90424952991313</v>
       </c>
       <c r="G7">
-        <v>0.16794850118319</v>
+        <v>0.2078156621183425</v>
       </c>
       <c r="H7">
-        <v>0.1559424963596925</v>
+        <v>0.3844798742000037</v>
       </c>
       <c r="I7">
-        <v>0.0924375583174708</v>
+        <v>0.2535787071852162</v>
       </c>
       <c r="J7">
-        <v>0.01213182295357207</v>
+        <v>0.02131522984560164</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7903085716781533</v>
+        <v>0.8326730017018775</v>
       </c>
       <c r="O7">
-        <v>0.6335459561888399</v>
+        <v>1.094652339971262</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.043300597085533</v>
+        <v>0.6598462993849523</v>
       </c>
       <c r="C8">
-        <v>0.5159347548977564</v>
+        <v>0.1739919960422469</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9279118783701676</v>
+        <v>0.8159234448559971</v>
       </c>
       <c r="F8">
-        <v>1.821191701840561</v>
+        <v>1.948405130557305</v>
       </c>
       <c r="G8">
-        <v>0.1906602153382906</v>
+        <v>0.2096371499643297</v>
       </c>
       <c r="H8">
-        <v>0.1595534308450581</v>
+        <v>0.380736881404502</v>
       </c>
       <c r="I8">
-        <v>0.08621551570438157</v>
+        <v>0.247518262540968</v>
       </c>
       <c r="J8">
-        <v>0.01319270411182671</v>
+        <v>0.02122640202388482</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8277156354527193</v>
+        <v>0.842610407761029</v>
       </c>
       <c r="O8">
-        <v>0.6896911443382692</v>
+        <v>1.090996271924283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.720772976037722</v>
+        <v>0.8745574503307694</v>
       </c>
       <c r="C9">
-        <v>0.6740026952924438</v>
+        <v>0.2248464778054995</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.218716246054271</v>
+        <v>0.880965424179152</v>
       </c>
       <c r="F9">
-        <v>2.340793065548297</v>
+        <v>2.044747073888118</v>
       </c>
       <c r="G9">
-        <v>0.2407618200417119</v>
+        <v>0.2150129461363903</v>
       </c>
       <c r="H9">
-        <v>0.1701158040910684</v>
+        <v>0.3751460650859855</v>
       </c>
       <c r="I9">
-        <v>0.07782181630052065</v>
+        <v>0.2372903815011469</v>
       </c>
       <c r="J9">
-        <v>0.01566244147294427</v>
+        <v>0.02119827194665902</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9068873399196775</v>
+        <v>0.8645728497982219</v>
       </c>
       <c r="O9">
-        <v>0.8188108444151538</v>
+        <v>1.091246509003398</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.218919560385416</v>
+        <v>1.031343672512889</v>
       </c>
       <c r="C10">
-        <v>0.7901693747027991</v>
+        <v>0.2618575020689775</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.440733093244603</v>
+        <v>0.9307391682171726</v>
       </c>
       <c r="F10">
-        <v>2.744323949494429</v>
+        <v>2.121527673911743</v>
       </c>
       <c r="G10">
-        <v>0.2817914331991318</v>
+        <v>0.2200778733138975</v>
       </c>
       <c r="H10">
-        <v>0.1803627114249338</v>
+        <v>0.3721073359751728</v>
       </c>
       <c r="I10">
-        <v>0.0743614266486432</v>
+        <v>0.2307931460565342</v>
       </c>
       <c r="J10">
-        <v>0.01776849739579589</v>
+        <v>0.02126755848671991</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9690749813293138</v>
+        <v>0.882198092454999</v>
       </c>
       <c r="O10">
-        <v>0.9277892237626872</v>
+        <v>1.095992412247028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.445885132845547</v>
+        <v>1.102447494855369</v>
       </c>
       <c r="C11">
-        <v>0.8430896025058985</v>
+        <v>0.2786154676547312</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.544082623877145</v>
+        <v>0.953818108945967</v>
       </c>
       <c r="F11">
-        <v>2.933830882761953</v>
+        <v>2.157771605054961</v>
       </c>
       <c r="G11">
-        <v>0.3015710937053342</v>
+        <v>0.2226276214609868</v>
       </c>
       <c r="H11">
-        <v>0.1856513635661514</v>
+        <v>0.3709575909952889</v>
       </c>
       <c r="I11">
-        <v>0.07346610735581471</v>
+        <v>0.2280598073903679</v>
       </c>
       <c r="J11">
-        <v>0.01880293556153489</v>
+        <v>0.02131880979904466</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9983518879301556</v>
+        <v>0.8905358197910687</v>
       </c>
       <c r="O11">
-        <v>0.9810332587022117</v>
+        <v>1.099150512718239</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.531904821034232</v>
+        <v>1.129339713133277</v>
       </c>
       <c r="C12">
-        <v>0.863145808584278</v>
+        <v>0.2849496570157442</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.583605784238244</v>
+        <v>0.9626204889777199</v>
       </c>
       <c r="F12">
-        <v>3.00655600027207</v>
+        <v>2.171686243616676</v>
       </c>
       <c r="G12">
-        <v>0.3092392900802281</v>
+        <v>0.2236287309327452</v>
       </c>
       <c r="H12">
-        <v>0.1877520909043824</v>
+        <v>0.3705557018316199</v>
       </c>
       <c r="I12">
-        <v>0.07323288627866553</v>
+        <v>0.2270568606606158</v>
       </c>
       <c r="J12">
-        <v>0.01920681476871877</v>
+        <v>0.0213410701928396</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.009590275941775</v>
+        <v>0.8937387369865633</v>
       </c>
       <c r="O12">
-        <v>1.00177722799927</v>
+        <v>1.100490722879698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.513375341945732</v>
+        <v>1.123549499831256</v>
       </c>
       <c r="C13">
-        <v>0.8588255176860287</v>
+        <v>0.2835860021330063</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.575075729628523</v>
+        <v>0.9607219404231557</v>
       </c>
       <c r="F13">
-        <v>2.99084867442707</v>
+        <v>2.16868102405283</v>
       </c>
       <c r="G13">
-        <v>0.3075795905671583</v>
+        <v>0.2234115379790609</v>
       </c>
       <c r="H13">
-        <v>0.1872951708093638</v>
+        <v>0.3706407654132704</v>
       </c>
       <c r="I13">
-        <v>0.07327827163565281</v>
+        <v>0.2272714328112979</v>
       </c>
       <c r="J13">
-        <v>0.01911927159635951</v>
+        <v>0.02133614890645319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.007162969761055</v>
+        <v>0.8930469097048501</v>
       </c>
       <c r="O13">
-        <v>0.9972828724322937</v>
+        <v>1.100195656623043</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.452960435789976</v>
+        <v>1.104660610412054</v>
       </c>
       <c r="C14">
-        <v>0.844739274391145</v>
+        <v>0.2791368217408206</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.547326167693114</v>
+        <v>0.9545410251277104</v>
       </c>
       <c r="F14">
-        <v>2.939794062957787</v>
+        <v>2.158912562438189</v>
       </c>
       <c r="G14">
-        <v>0.3021982857908654</v>
+        <v>0.222709268956649</v>
       </c>
       <c r="H14">
-        <v>0.185822180066495</v>
+        <v>0.3709238557789405</v>
       </c>
       <c r="I14">
-        <v>0.07344475036901876</v>
+        <v>0.2279766500126463</v>
       </c>
       <c r="J14">
-        <v>0.01883591217002945</v>
+        <v>0.02132058391726943</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9992733744965392</v>
+        <v>0.8907984140949026</v>
       </c>
       <c r="O14">
-        <v>0.9827278974638887</v>
+        <v>1.099257876920689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.415964709095931</v>
+        <v>1.093086237117461</v>
       </c>
       <c r="C15">
-        <v>0.8361133645854295</v>
+        <v>0.2764100363827708</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.530380674702513</v>
+        <v>0.9507632287176619</v>
       </c>
       <c r="F15">
-        <v>2.908650449107085</v>
+        <v>2.152953839435185</v>
       </c>
       <c r="G15">
-        <v>0.2989258197635536</v>
+        <v>0.2222837491152774</v>
       </c>
       <c r="H15">
-        <v>0.1849329394223815</v>
+        <v>0.37110162018719</v>
       </c>
       <c r="I15">
-        <v>0.07356075704933218</v>
+        <v>0.2284128017829854</v>
       </c>
       <c r="J15">
-        <v>0.01866396643490376</v>
+        <v>0.0213114218579662</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9944608503394505</v>
+        <v>0.8894270723254323</v>
       </c>
       <c r="O15">
-        <v>0.9738899693037979</v>
+        <v>1.098702271266291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.204095789335383</v>
+        <v>1.026692312603473</v>
       </c>
       <c r="C16">
-        <v>0.7867128981380631</v>
+        <v>0.2607607154647553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.434030350710032</v>
+        <v>0.9292396995713119</v>
       </c>
       <c r="F16">
-        <v>2.732067819631737</v>
+        <v>2.119185581455923</v>
       </c>
       <c r="G16">
-        <v>0.2805227089459521</v>
+        <v>0.2199162061549345</v>
       </c>
       <c r="H16">
-        <v>0.1800303639367797</v>
+        <v>0.3721871589180523</v>
       </c>
       <c r="I16">
-        <v>0.07443428598819146</v>
+        <v>0.2309762615196824</v>
       </c>
       <c r="J16">
-        <v>0.01770252987625298</v>
+        <v>0.02126460745450132</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9671823647455824</v>
+        <v>0.8816596053362389</v>
       </c>
       <c r="O16">
-        <v>0.9243879578027361</v>
+        <v>1.095806182382972</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.074226999098869</v>
+        <v>0.9859044397693992</v>
       </c>
       <c r="C17">
-        <v>0.7564304463988378</v>
+        <v>0.2511399676254484</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.375558285422514</v>
+        <v>0.9161476103608948</v>
       </c>
       <c r="F17">
-        <v>2.625335621671866</v>
+        <v>2.09880734834266</v>
       </c>
       <c r="G17">
-        <v>0.2695307929759707</v>
+        <v>0.2185268967590446</v>
       </c>
       <c r="H17">
-        <v>0.1771888424850232</v>
+        <v>0.3729127075938408</v>
       </c>
       <c r="I17">
-        <v>0.07514969268710914</v>
+        <v>0.2326058970113607</v>
       </c>
       <c r="J17">
-        <v>0.01713309110043326</v>
+        <v>0.02124095306884755</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9507076166378425</v>
+        <v>0.8769761657304684</v>
       </c>
       <c r="O17">
-        <v>0.8949970070693496</v>
+        <v>1.094285882827648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.999562028298499</v>
+        <v>0.9624238242038246</v>
       </c>
       <c r="C18">
-        <v>0.739019510469916</v>
+        <v>0.2455989993918024</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.342144992761035</v>
+        <v>0.9086584769450354</v>
       </c>
       <c r="F18">
-        <v>2.564497980787849</v>
+        <v>2.08721016438102</v>
       </c>
       <c r="G18">
-        <v>0.263312354126775</v>
+        <v>0.2177509133753688</v>
       </c>
       <c r="H18">
-        <v>0.1756130154155784</v>
+        <v>0.3733519133951972</v>
       </c>
       <c r="I18">
-        <v>0.07562454708475386</v>
+        <v>0.2335641342438954</v>
       </c>
       <c r="J18">
-        <v>0.01681267876805492</v>
+        <v>0.02122920410718621</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9413240900227038</v>
+        <v>0.8743125108588004</v>
       </c>
       <c r="O18">
-        <v>0.8784340126205166</v>
+        <v>1.093505455514133</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.97428664525188</v>
+        <v>0.9544702224038701</v>
       </c>
       <c r="C19">
-        <v>0.7331254606901609</v>
+        <v>0.2437216692676714</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.330867914366053</v>
+        <v>0.9061298392627464</v>
       </c>
       <c r="F19">
-        <v>2.543991027893298</v>
+        <v>2.08330480796451</v>
       </c>
       <c r="G19">
-        <v>0.2612242102583124</v>
+        <v>0.217492140508277</v>
       </c>
       <c r="H19">
-        <v>0.1750892928221432</v>
+        <v>0.3735043789848049</v>
       </c>
       <c r="I19">
-        <v>0.07579596789927301</v>
+        <v>0.2338921644900402</v>
       </c>
       <c r="J19">
-        <v>0.01670538011969214</v>
+        <v>0.02122554449079317</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9381625540418526</v>
+        <v>0.8734158312923483</v>
       </c>
       <c r="O19">
-        <v>0.8728832097277461</v>
+        <v>1.093257343192221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.088048279316581</v>
+        <v>0.9902485139386386</v>
       </c>
       <c r="C20">
-        <v>0.7596533297651149</v>
+        <v>0.2521648781394674</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.381759807325679</v>
+        <v>0.9175370322184051</v>
       </c>
       <c r="F20">
-        <v>2.636639569064158</v>
+        <v>2.100963825054663</v>
       </c>
       <c r="G20">
-        <v>0.2706900320105348</v>
+        <v>0.218672397469021</v>
       </c>
       <c r="H20">
-        <v>0.1774852136875751</v>
+        <v>0.3728332058774555</v>
       </c>
       <c r="I20">
-        <v>0.07506692010215055</v>
+        <v>0.2324302539605689</v>
       </c>
       <c r="J20">
-        <v>0.01719296435549822</v>
+        <v>0.02124327887719346</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9524517583127476</v>
+        <v>0.8774716098726287</v>
       </c>
       <c r="O20">
-        <v>0.898089960070422</v>
+        <v>1.094437987201928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.470703602121205</v>
+        <v>1.110209651682055</v>
       </c>
       <c r="C21">
-        <v>0.8488762509491892</v>
+        <v>0.2804439742391764</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.555465974022496</v>
+        <v>0.9563548022458406</v>
       </c>
       <c r="F21">
-        <v>2.954762987286273</v>
+        <v>2.161776639158404</v>
       </c>
       <c r="G21">
-        <v>0.3037739248221101</v>
+        <v>0.2229145749386419</v>
       </c>
       <c r="H21">
-        <v>0.1862521073379355</v>
+        <v>0.3708397958637875</v>
       </c>
       <c r="I21">
-        <v>0.07339291147884097</v>
+        <v>0.2277686380359949</v>
       </c>
       <c r="J21">
-        <v>0.01891880184211203</v>
+        <v>0.02132507819203511</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.001586536506608</v>
+        <v>0.8914576173483795</v>
       </c>
       <c r="O21">
-        <v>0.9869868112104143</v>
+        <v>1.099529404137002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.721226502435911</v>
+        <v>1.188416534225496</v>
       </c>
       <c r="C22">
-        <v>0.9072875978647801</v>
+        <v>0.2988576861714876</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.671274505139991</v>
+        <v>0.9820910561452934</v>
       </c>
       <c r="F22">
-        <v>3.168345865244504</v>
+        <v>2.202628192550122</v>
       </c>
       <c r="G22">
-        <v>0.3264432933023613</v>
+        <v>0.2258945558369732</v>
       </c>
       <c r="H22">
-        <v>0.1925572390290284</v>
+        <v>0.3697322401688297</v>
       </c>
       <c r="I22">
-        <v>0.0729198593774818</v>
+        <v>0.2249092271373563</v>
       </c>
       <c r="J22">
-        <v>0.02011822932117724</v>
+        <v>0.02139517311530525</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.03458917037311</v>
+        <v>0.9008638952505805</v>
       </c>
       <c r="O22">
-        <v>1.048504168550153</v>
+        <v>1.103698355240937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.587470216014026</v>
+        <v>1.146694440879799</v>
       </c>
       <c r="C23">
-        <v>0.8761012897180649</v>
+        <v>0.2890363224082648</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.609239205785514</v>
+        <v>0.9683215551588233</v>
       </c>
       <c r="F23">
-        <v>3.053795103536515</v>
+        <v>2.180723471743818</v>
       </c>
       <c r="G23">
-        <v>0.3142421999305327</v>
+        <v>0.2242850192809129</v>
       </c>
       <c r="H23">
-        <v>0.1891366735219151</v>
+        <v>0.3703054818090266</v>
       </c>
       <c r="I23">
-        <v>0.0731126518995211</v>
+        <v>0.2264181697141439</v>
       </c>
       <c r="J23">
-        <v>0.01947111694732229</v>
+        <v>0.02135623509837359</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.016890152234396</v>
+        <v>0.895819415650223</v>
       </c>
       <c r="O23">
-        <v>1.015339516422557</v>
+        <v>1.101396111226478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.08179968534472</v>
+        <v>0.9882846548190969</v>
       </c>
       <c r="C24">
-        <v>0.7581962681976506</v>
+        <v>0.2517015468175146</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.378955470347833</v>
+        <v>0.9169087572242489</v>
       </c>
       <c r="F24">
-        <v>2.631527430042809</v>
+        <v>2.099988512747899</v>
       </c>
       <c r="G24">
-        <v>0.2701656268988586</v>
+        <v>0.2186065457542838</v>
       </c>
       <c r="H24">
-        <v>0.1773510448130935</v>
+        <v>0.3728690798336771</v>
       </c>
       <c r="I24">
-        <v>0.07510414423371614</v>
+        <v>0.2325095957275263</v>
       </c>
       <c r="J24">
-        <v>0.01716587404846948</v>
+        <v>0.02124222161729605</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9516629584199734</v>
+        <v>0.8772475294699262</v>
       </c>
       <c r="O24">
-        <v>0.8966905989228451</v>
+        <v>1.094368929259929</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.537507713172147</v>
+        <v>0.8166364822563992</v>
       </c>
       <c r="C25">
-        <v>0.6312555135792479</v>
+        <v>0.2111497004351861</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.138744501803018</v>
+        <v>0.8630220611027113</v>
       </c>
       <c r="F25">
-        <v>2.196781706802184</v>
+        <v>2.017634490371265</v>
       </c>
       <c r="G25">
-        <v>0.2265301985017203</v>
+        <v>0.2133639143985064</v>
       </c>
       <c r="H25">
-        <v>0.1668495514434269</v>
+        <v>0.3764710097767718</v>
       </c>
       <c r="I25">
-        <v>0.07964656156650918</v>
+        <v>0.239879189275781</v>
       </c>
       <c r="J25">
-        <v>0.01494726772574495</v>
+        <v>0.02119015085732912</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8847995217115567</v>
+        <v>0.8583684792001662</v>
       </c>
       <c r="O25">
-        <v>0.7815944574304297</v>
+        <v>1.090380463252529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6896187935121247</v>
+        <v>2.136944176906525</v>
       </c>
       <c r="C2">
-        <v>0.181058051359372</v>
+        <v>0.5377923273283898</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.824681771033525</v>
+        <v>0.9673005730158337</v>
       </c>
       <c r="F2">
-        <v>1.961027168877578</v>
+        <v>1.890865408946709</v>
       </c>
       <c r="G2">
-        <v>0.2102521736780076</v>
+        <v>0.1971616590790788</v>
       </c>
       <c r="H2">
-        <v>0.3798410003148334</v>
+        <v>0.1607547231389148</v>
       </c>
       <c r="I2">
-        <v>0.2459880266992993</v>
+        <v>0.08477385739543486</v>
       </c>
       <c r="J2">
-        <v>0.02121218483690512</v>
+        <v>0.01350461993216001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8454711975907543</v>
+        <v>0.8382281995646537</v>
       </c>
       <c r="O2">
-        <v>1.090506345116282</v>
+        <v>0.7061030532742762</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6031622436052828</v>
+        <v>1.865250825982258</v>
       </c>
       <c r="C3">
-        <v>0.1605233397285133</v>
+        <v>0.4743654188280004</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7995253972065228</v>
+        <v>0.853781991952232</v>
       </c>
       <c r="F3">
-        <v>1.925158862440043</v>
+        <v>1.690768466684148</v>
       </c>
       <c r="G3">
-        <v>0.2086048924463739</v>
+        <v>0.1787066063766005</v>
       </c>
       <c r="H3">
-        <v>0.3825718963416307</v>
+        <v>0.1575253563445926</v>
       </c>
       <c r="I3">
-        <v>0.2505515470071007</v>
+        <v>0.08923384436111093</v>
       </c>
       <c r="J3">
-        <v>0.02126447437241907</v>
+        <v>0.01262812812644576</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8373625661899098</v>
+        <v>0.8081683046284098</v>
       </c>
       <c r="O3">
-        <v>1.092489104206493</v>
+        <v>0.6598822584323045</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.549900385240818</v>
+        <v>1.698216501737903</v>
       </c>
       <c r="C4">
-        <v>0.147846999175556</v>
+        <v>0.435353497301378</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7844856960294919</v>
+        <v>0.785187236930696</v>
       </c>
       <c r="F4">
-        <v>1.904360927396965</v>
+        <v>1.570985642083201</v>
       </c>
       <c r="G4">
-        <v>0.2078194443181971</v>
+        <v>0.1680059084405414</v>
       </c>
       <c r="H4">
-        <v>0.3844689260907117</v>
+        <v>0.1559502274313971</v>
       </c>
       <c r="I4">
-        <v>0.2535616713022346</v>
+        <v>0.09241903826854703</v>
       </c>
       <c r="J4">
-        <v>0.02131490927722268</v>
+        <v>0.01213443682261151</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8326978890959253</v>
+        <v>0.790404605361374</v>
       </c>
       <c r="O4">
-        <v>1.094638321525338</v>
+        <v>0.6336850415610087</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5281528175523817</v>
+        <v>1.630082274299895</v>
       </c>
       <c r="C5">
-        <v>0.1426645650038267</v>
+        <v>0.4194356959341121</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7784590137853229</v>
+        <v>0.7574837469528859</v>
       </c>
       <c r="F5">
-        <v>1.896193213151548</v>
+        <v>1.52288022317957</v>
       </c>
       <c r="G5">
-        <v>0.2075559685719455</v>
+        <v>0.163792211012904</v>
       </c>
       <c r="H5">
-        <v>0.3852973329026312</v>
+        <v>0.1554057165816971</v>
       </c>
       <c r="I5">
-        <v>0.2548405271956327</v>
+        <v>0.0938238087391543</v>
       </c>
       <c r="J5">
-        <v>0.02134005753286949</v>
+        <v>0.01194367846493449</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8308763912083492</v>
+        <v>0.783333563493656</v>
       </c>
       <c r="O5">
-        <v>1.095747901541657</v>
+        <v>0.6235226828785869</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5245391057170252</v>
+        <v>1.618764276032806</v>
       </c>
       <c r="C6">
-        <v>0.1418030264514698</v>
+        <v>0.4167912547756316</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7774644532850346</v>
+        <v>0.7528978649376654</v>
       </c>
       <c r="F6">
-        <v>1.894855534682762</v>
+        <v>1.514933182491248</v>
       </c>
       <c r="G6">
-        <v>0.2075156305410104</v>
+        <v>0.1631010727708002</v>
       </c>
       <c r="H6">
-        <v>0.3854382314176519</v>
+        <v>0.1553210357798775</v>
       </c>
       <c r="I6">
-        <v>0.2550560297153677</v>
+        <v>0.09406336112694547</v>
       </c>
       <c r="J6">
-        <v>0.02134451055539621</v>
+        <v>0.01191261136939126</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8305787407633574</v>
+        <v>0.7821693747854397</v>
       </c>
       <c r="O6">
-        <v>1.095946248634419</v>
+        <v>0.6218652208256401</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5496072615924277</v>
+        <v>1.697297904584048</v>
       </c>
       <c r="C7">
-        <v>0.1477771742834477</v>
+        <v>0.4351389097204503</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.784404004715995</v>
+        <v>0.7848126446191799</v>
       </c>
       <c r="F7">
-        <v>1.90424952991313</v>
+        <v>1.570334098112298</v>
       </c>
       <c r="G7">
-        <v>0.2078156621183425</v>
+        <v>0.1679485011831972</v>
       </c>
       <c r="H7">
-        <v>0.3844798742000037</v>
+        <v>0.1559424963596925</v>
       </c>
       <c r="I7">
-        <v>0.2535787071852162</v>
+        <v>0.09243755831745482</v>
       </c>
       <c r="J7">
-        <v>0.02131522984560164</v>
+        <v>0.01213182295362003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8326730017018775</v>
+        <v>0.7903085716781533</v>
       </c>
       <c r="O7">
-        <v>1.094652339971262</v>
+        <v>0.6335459561888968</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6598462993849523</v>
+        <v>2.043300597085505</v>
       </c>
       <c r="C8">
-        <v>0.1739919960422469</v>
+        <v>0.5159347548977848</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8159234448559971</v>
+        <v>0.9279118783701534</v>
       </c>
       <c r="F8">
-        <v>1.948405130557305</v>
+        <v>1.821191701840561</v>
       </c>
       <c r="G8">
-        <v>0.2096371499643297</v>
+        <v>0.1906602153382906</v>
       </c>
       <c r="H8">
-        <v>0.380736881404502</v>
+        <v>0.1595534308449444</v>
       </c>
       <c r="I8">
-        <v>0.247518262540968</v>
+        <v>0.08621551570438157</v>
       </c>
       <c r="J8">
-        <v>0.02122640202388482</v>
+        <v>0.01319270411183027</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.842610407761029</v>
+        <v>0.8277156354527762</v>
       </c>
       <c r="O8">
-        <v>1.090996271924283</v>
+        <v>0.6896911443382834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8745574503307694</v>
+        <v>2.720772976037722</v>
       </c>
       <c r="C9">
-        <v>0.2248464778054995</v>
+        <v>0.6740026952923586</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.880965424179152</v>
+        <v>1.218716246054242</v>
       </c>
       <c r="F9">
-        <v>2.044747073888118</v>
+        <v>2.34079306554834</v>
       </c>
       <c r="G9">
-        <v>0.2150129461363903</v>
+        <v>0.2407618200417616</v>
       </c>
       <c r="H9">
-        <v>0.3751460650859855</v>
+        <v>0.1701158040909618</v>
       </c>
       <c r="I9">
-        <v>0.2372903815011469</v>
+        <v>0.07782181630052243</v>
       </c>
       <c r="J9">
-        <v>0.02119827194665902</v>
+        <v>0.01566244147300111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8645728497982219</v>
+        <v>0.9068873399196775</v>
       </c>
       <c r="O9">
-        <v>1.091246509003398</v>
+        <v>0.8188108444151823</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.031343672512889</v>
+        <v>3.218919560385359</v>
       </c>
       <c r="C10">
-        <v>0.2618575020689775</v>
+        <v>0.7901693747028276</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9307391682171726</v>
+        <v>1.440733093244603</v>
       </c>
       <c r="F10">
-        <v>2.121527673911743</v>
+        <v>2.744323949494458</v>
       </c>
       <c r="G10">
-        <v>0.2200778733138975</v>
+        <v>0.2817914331990607</v>
       </c>
       <c r="H10">
-        <v>0.3721073359751728</v>
+        <v>0.1803627114249338</v>
       </c>
       <c r="I10">
-        <v>0.2307931460565342</v>
+        <v>0.07436142664864143</v>
       </c>
       <c r="J10">
-        <v>0.02126755848671991</v>
+        <v>0.01776849739578168</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.882198092454999</v>
+        <v>0.9690749813292996</v>
       </c>
       <c r="O10">
-        <v>1.095992412247028</v>
+        <v>0.9277892237626588</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.102447494855369</v>
+        <v>3.445885132845547</v>
       </c>
       <c r="C11">
-        <v>0.2786154676547312</v>
+        <v>0.8430896025060974</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.953818108945967</v>
+        <v>1.544082623877145</v>
       </c>
       <c r="F11">
-        <v>2.157771605054961</v>
+        <v>2.933830882761981</v>
       </c>
       <c r="G11">
-        <v>0.2226276214609868</v>
+        <v>0.3015710937053058</v>
       </c>
       <c r="H11">
-        <v>0.3709575909952889</v>
+        <v>0.1856513635661372</v>
       </c>
       <c r="I11">
-        <v>0.2280598073903679</v>
+        <v>0.07346610735581649</v>
       </c>
       <c r="J11">
-        <v>0.02131880979904466</v>
+        <v>0.01880293556142831</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8905358197910687</v>
+        <v>0.9983518879300846</v>
       </c>
       <c r="O11">
-        <v>1.099150512718239</v>
+        <v>0.9810332587022117</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.129339713133277</v>
+        <v>3.531904821034061</v>
       </c>
       <c r="C12">
-        <v>0.2849496570157442</v>
+        <v>0.8631458085840791</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9626204889777199</v>
+        <v>1.583605784238202</v>
       </c>
       <c r="F12">
-        <v>2.171686243616676</v>
+        <v>3.006556000272099</v>
       </c>
       <c r="G12">
-        <v>0.2236287309327452</v>
+        <v>0.3092392900802565</v>
       </c>
       <c r="H12">
-        <v>0.3705557018316199</v>
+        <v>0.1877520909043682</v>
       </c>
       <c r="I12">
-        <v>0.2270568606606158</v>
+        <v>0.0732328862786531</v>
       </c>
       <c r="J12">
-        <v>0.0213410701928396</v>
+        <v>0.01920681476871877</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8937387369865633</v>
+        <v>1.009590275941832</v>
       </c>
       <c r="O12">
-        <v>1.100490722879698</v>
+        <v>1.001777227999213</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.123549499831256</v>
+        <v>3.513375341945562</v>
       </c>
       <c r="C13">
-        <v>0.2835860021330063</v>
+        <v>0.8588255176860287</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9607219404231557</v>
+        <v>1.575075729628551</v>
       </c>
       <c r="F13">
-        <v>2.16868102405283</v>
+        <v>2.990848674427042</v>
       </c>
       <c r="G13">
-        <v>0.2234115379790609</v>
+        <v>0.3075795905671583</v>
       </c>
       <c r="H13">
-        <v>0.3706407654132704</v>
+        <v>0.1872951708093638</v>
       </c>
       <c r="I13">
-        <v>0.2272714328112979</v>
+        <v>0.07327827163565104</v>
       </c>
       <c r="J13">
-        <v>0.02133614890645319</v>
+        <v>0.01911927159648386</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8930469097048501</v>
+        <v>1.00716296976104</v>
       </c>
       <c r="O13">
-        <v>1.100195656623043</v>
+        <v>0.9972828724322369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.104660610412054</v>
+        <v>3.452960435789976</v>
       </c>
       <c r="C14">
-        <v>0.2791368217408206</v>
+        <v>0.8447392743915714</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9545410251277104</v>
+        <v>1.547326167693114</v>
       </c>
       <c r="F14">
-        <v>2.158912562438189</v>
+        <v>2.939794062957787</v>
       </c>
       <c r="G14">
-        <v>0.222709268956649</v>
+        <v>0.3021982857908085</v>
       </c>
       <c r="H14">
-        <v>0.3709238557789405</v>
+        <v>0.1858221800666087</v>
       </c>
       <c r="I14">
-        <v>0.2279766500126463</v>
+        <v>0.07344475036900278</v>
       </c>
       <c r="J14">
-        <v>0.02132058391726943</v>
+        <v>0.0188359121699726</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8907984140949026</v>
+        <v>0.999273374496525</v>
       </c>
       <c r="O14">
-        <v>1.099257876920689</v>
+        <v>0.9827278974638318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.093086237117461</v>
+        <v>3.415964709095874</v>
       </c>
       <c r="C15">
-        <v>0.2764100363827708</v>
+        <v>0.8361133645853727</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9507632287176619</v>
+        <v>1.530380674702556</v>
       </c>
       <c r="F15">
-        <v>2.152953839435185</v>
+        <v>2.908650449107085</v>
       </c>
       <c r="G15">
-        <v>0.2222837491152774</v>
+        <v>0.2989258197635536</v>
       </c>
       <c r="H15">
-        <v>0.37110162018719</v>
+        <v>0.1849329394223815</v>
       </c>
       <c r="I15">
-        <v>0.2284128017829854</v>
+        <v>0.07356075704934639</v>
       </c>
       <c r="J15">
-        <v>0.0213114218579662</v>
+        <v>0.01866396643491086</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8894270723254323</v>
+        <v>0.9944608503394363</v>
       </c>
       <c r="O15">
-        <v>1.098702271266291</v>
+        <v>0.9738899693038547</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.026692312603473</v>
+        <v>3.204095789335327</v>
       </c>
       <c r="C16">
-        <v>0.2607607154647553</v>
+        <v>0.7867128981378926</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9292396995713119</v>
+        <v>1.434030350710117</v>
       </c>
       <c r="F16">
-        <v>2.119185581455923</v>
+        <v>2.732067819631737</v>
       </c>
       <c r="G16">
-        <v>0.2199162061549345</v>
+        <v>0.2805227089459663</v>
       </c>
       <c r="H16">
-        <v>0.3721871589180523</v>
+        <v>0.1800303639367797</v>
       </c>
       <c r="I16">
-        <v>0.2309762615196824</v>
+        <v>0.07443428598818969</v>
       </c>
       <c r="J16">
-        <v>0.02126460745450132</v>
+        <v>0.01770252987620324</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8816596053362389</v>
+        <v>0.9671823647455824</v>
       </c>
       <c r="O16">
-        <v>1.095806182382972</v>
+        <v>0.9243879578027361</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9859044397693992</v>
+        <v>3.074226999098869</v>
       </c>
       <c r="C17">
-        <v>0.2511399676254484</v>
+        <v>0.7564304463989515</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9161476103608948</v>
+        <v>1.375558285422485</v>
       </c>
       <c r="F17">
-        <v>2.09880734834266</v>
+        <v>2.625335621671866</v>
       </c>
       <c r="G17">
-        <v>0.2185268967590446</v>
+        <v>0.2695307929759849</v>
       </c>
       <c r="H17">
-        <v>0.3729127075938408</v>
+        <v>0.1771888424849095</v>
       </c>
       <c r="I17">
-        <v>0.2326058970113607</v>
+        <v>0.07514969268711091</v>
       </c>
       <c r="J17">
-        <v>0.02124095306884755</v>
+        <v>0.01713309110054695</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8769761657304684</v>
+        <v>0.9507076166377715</v>
       </c>
       <c r="O17">
-        <v>1.094285882827648</v>
+        <v>0.8949970070693212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9624238242038246</v>
+        <v>2.999562028298556</v>
       </c>
       <c r="C18">
-        <v>0.2455989993918024</v>
+        <v>0.7390195104699444</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9086584769450354</v>
+        <v>1.342144992761035</v>
       </c>
       <c r="F18">
-        <v>2.08721016438102</v>
+        <v>2.564497980787849</v>
       </c>
       <c r="G18">
-        <v>0.2177509133753688</v>
+        <v>0.2633123541267892</v>
       </c>
       <c r="H18">
-        <v>0.3733519133951972</v>
+        <v>0.1756130154154647</v>
       </c>
       <c r="I18">
-        <v>0.2335641342438954</v>
+        <v>0.07562454708476629</v>
       </c>
       <c r="J18">
-        <v>0.02122920410718621</v>
+        <v>0.01681267876811532</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8743125108588004</v>
+        <v>0.9413240900226896</v>
       </c>
       <c r="O18">
-        <v>1.093505455514133</v>
+        <v>0.8784340126205166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9544702224038701</v>
+        <v>2.974286645251823</v>
       </c>
       <c r="C19">
-        <v>0.2437216692676714</v>
+        <v>0.7331254606901894</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9061298392627464</v>
+        <v>1.330867914366067</v>
       </c>
       <c r="F19">
-        <v>2.08330480796451</v>
+        <v>2.543991027893327</v>
       </c>
       <c r="G19">
-        <v>0.217492140508277</v>
+        <v>0.2612242102582485</v>
       </c>
       <c r="H19">
-        <v>0.3735043789848049</v>
+        <v>0.1750892928221432</v>
       </c>
       <c r="I19">
-        <v>0.2338921644900402</v>
+        <v>0.07579596789927479</v>
       </c>
       <c r="J19">
-        <v>0.02122554449079317</v>
+        <v>0.01670538011968148</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8734158312923483</v>
+        <v>0.9381625540418526</v>
       </c>
       <c r="O19">
-        <v>1.093257343192221</v>
+        <v>0.872883209727803</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9902485139386386</v>
+        <v>3.088048279316638</v>
       </c>
       <c r="C20">
-        <v>0.2521648781394674</v>
+        <v>0.7596533297646886</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9175370322184051</v>
+        <v>1.381759807325636</v>
       </c>
       <c r="F20">
-        <v>2.100963825054663</v>
+        <v>2.636639569064158</v>
       </c>
       <c r="G20">
-        <v>0.218672397469021</v>
+        <v>0.2706900320105348</v>
       </c>
       <c r="H20">
-        <v>0.3728332058774555</v>
+        <v>0.1774852136876888</v>
       </c>
       <c r="I20">
-        <v>0.2324302539605689</v>
+        <v>0.07506692010215055</v>
       </c>
       <c r="J20">
-        <v>0.02124327887719346</v>
+        <v>0.01719296435556217</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8774716098726287</v>
+        <v>0.9524517583127476</v>
       </c>
       <c r="O20">
-        <v>1.094437987201928</v>
+        <v>0.8980899600704788</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.110209651682055</v>
+        <v>3.470703602121205</v>
       </c>
       <c r="C21">
-        <v>0.2804439742391764</v>
+        <v>0.8488762509490186</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9563548022458406</v>
+        <v>1.555465974022439</v>
       </c>
       <c r="F21">
-        <v>2.161776639158404</v>
+        <v>2.954762987286273</v>
       </c>
       <c r="G21">
-        <v>0.2229145749386419</v>
+        <v>0.3037739248219822</v>
       </c>
       <c r="H21">
-        <v>0.3708397958637875</v>
+        <v>0.1862521073379213</v>
       </c>
       <c r="I21">
-        <v>0.2277686380359949</v>
+        <v>0.07339291147885341</v>
       </c>
       <c r="J21">
-        <v>0.02132507819203511</v>
+        <v>0.01891880184212269</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8914576173483795</v>
+        <v>1.001586536506593</v>
       </c>
       <c r="O21">
-        <v>1.099529404137002</v>
+        <v>0.9869868112104143</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.188416534225496</v>
+        <v>3.721226502435854</v>
       </c>
       <c r="C22">
-        <v>0.2988576861714876</v>
+        <v>0.9072875978648085</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9820910561452934</v>
+        <v>1.671274505140005</v>
       </c>
       <c r="F22">
-        <v>2.202628192550122</v>
+        <v>3.168345865244476</v>
       </c>
       <c r="G22">
-        <v>0.2258945558369732</v>
+        <v>0.3264432933023471</v>
       </c>
       <c r="H22">
-        <v>0.3697322401688297</v>
+        <v>0.1925572390290142</v>
       </c>
       <c r="I22">
-        <v>0.2249092271373563</v>
+        <v>0.0729198593774818</v>
       </c>
       <c r="J22">
-        <v>0.02139517311530525</v>
+        <v>0.02011822932117724</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9008638952505805</v>
+        <v>1.034589170373053</v>
       </c>
       <c r="O22">
-        <v>1.103698355240937</v>
+        <v>1.048504168550181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.146694440879799</v>
+        <v>3.587470216014083</v>
       </c>
       <c r="C23">
-        <v>0.2890363224082648</v>
+        <v>0.8761012897177807</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9683215551588233</v>
+        <v>1.609239205785528</v>
       </c>
       <c r="F23">
-        <v>2.180723471743818</v>
+        <v>3.053795103536544</v>
       </c>
       <c r="G23">
-        <v>0.2242850192809129</v>
+        <v>0.3142421999305185</v>
       </c>
       <c r="H23">
-        <v>0.3703054818090266</v>
+        <v>0.1891366735219151</v>
       </c>
       <c r="I23">
-        <v>0.2264181697141439</v>
+        <v>0.07311265189953176</v>
       </c>
       <c r="J23">
-        <v>0.02135623509837359</v>
+        <v>0.01947111694731873</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.895819415650223</v>
+        <v>1.016890152234396</v>
       </c>
       <c r="O23">
-        <v>1.101396111226478</v>
+        <v>1.015339516422642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9882846548190969</v>
+        <v>3.081799685344777</v>
       </c>
       <c r="C24">
-        <v>0.2517015468175146</v>
+        <v>0.7581962681975654</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9169087572242489</v>
+        <v>1.378955470347805</v>
       </c>
       <c r="F24">
-        <v>2.099988512747899</v>
+        <v>2.631527430042809</v>
       </c>
       <c r="G24">
-        <v>0.2186065457542838</v>
+        <v>0.2701656268988017</v>
       </c>
       <c r="H24">
-        <v>0.3728690798336771</v>
+        <v>0.1773510448129798</v>
       </c>
       <c r="I24">
-        <v>0.2325095957275263</v>
+        <v>0.07510414423373568</v>
       </c>
       <c r="J24">
-        <v>0.02124222161729605</v>
+        <v>0.01716587404835579</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8772475294699262</v>
+        <v>0.9516629584199165</v>
       </c>
       <c r="O24">
-        <v>1.094368929259929</v>
+        <v>0.8966905989228451</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8166364822563992</v>
+        <v>2.537507713172033</v>
       </c>
       <c r="C25">
-        <v>0.2111497004351861</v>
+        <v>0.6312555135792479</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8630220611027113</v>
+        <v>1.138744501802989</v>
       </c>
       <c r="F25">
-        <v>2.017634490371265</v>
+        <v>2.196781706802184</v>
       </c>
       <c r="G25">
-        <v>0.2133639143985064</v>
+        <v>0.22653019850177</v>
       </c>
       <c r="H25">
-        <v>0.3764710097767718</v>
+        <v>0.1668495514434341</v>
       </c>
       <c r="I25">
-        <v>0.239879189275781</v>
+        <v>0.07964656156650918</v>
       </c>
       <c r="J25">
-        <v>0.02119015085732912</v>
+        <v>0.01494726772581245</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8583684792001662</v>
+        <v>0.8847995217115567</v>
       </c>
       <c r="O25">
-        <v>1.090380463252529</v>
+        <v>0.7815944574304439</v>
       </c>
     </row>
   </sheetData>
